--- a/biology/Zoologie/Charinus_eleonorae/Charinus_eleonorae.xlsx
+++ b/biology/Zoologie/Charinus_eleonorae/Charinus_eleonorae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus eleonorae est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Minas Gerais au Brésil[1],[2]. Elle se rencontre à Itacarambi dans la grotte Gruta Olhos d'Água.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Minas Gerais au Brésil,. Elle se rencontre à Itacarambi dans la grotte Gruta Olhos d'Água.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 7,0 à 9,1 mm et les femelles de 7,3 à 8,3 mm[3].
-La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 3,44 mm de long sur 4,69 mm et celle des femelles de 3,40 à 3,75 mm de long sur de 4,15 à 5,19 mm [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 7,0 à 9,1 mm et les femelles de 7,3 à 8,3 mm.
+La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 3,44 mm de long sur 4,69 mm et celle des femelles de 3,40 à 3,75 mm de long sur de 4,15 à 5,19 mm .
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de la biospéléologiste Eleonora Trajano[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de la biospéléologiste Eleonora Trajano.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baptista &amp; Giupponi, 2003 : « A new troglomorphic Charinus from Minas Gerais State, Brazil (Arachnida: Amblypygi: Charinidae). » Revista Iberica de Aracnologia, vol. 7, p. 79-84 (texte intégral).</t>
         </is>
